--- a/public/assets/docs/data_objetos.xlsx
+++ b/public/assets/docs/data_objetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESARROLLO\IDS\Frontera\public\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87833C86-BDF2-475D-B0C5-C289FAD75842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE035D8-8DD7-4D27-B4DA-4A47144FEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9BD9D899-9351-4A1A-8822-0728B231ACBC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="OBJETOS-X PROGRAMA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJETOS-X PROGRAMA'!$A$1:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJETOS-X PROGRAMA'!$A$1:$C$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
   <si>
     <t>NUMERO</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Prestar servicios de apoyo en los procesos inherentes a la gestión de la Oficina de Control Interno de Gestión</t>
   </si>
   <si>
-    <t>Prestar servicios de apoyo para la gestión del área de contratación del Instituto Departamental de Salud de Norte de Santander, en desarrollo de la ejecución del Plan de Acción del área de la vigencia y referencia a competencias departamentales definidas en el Plan Territorial de Salud</t>
-  </si>
-  <si>
     <t>Prestar servicios de apoyo a la gestión del Despacho del director del Instituto Departamental de Salud de Norte de Santander, en desarrollo de la ejecución del Plan de Acción del área de la vigencia y referencia a competencias departamentales definidas en el Plan Territorial de Salud</t>
   </si>
   <si>
@@ -511,6 +508,12 @@
   </si>
   <si>
     <t>VIGILANCIA Y CONTROL</t>
+  </si>
+  <si>
+    <t>Prestar servicios de apoyo en el desarrollo de los procesos precontractuales, contractuales, postcontractuales en la gestión del área de contratación del instituto departamental de salud de norte de Santander,en el marco de la ejecución del Plan de Acción Institucional  y en concordancia con las competencias departamentales definidas en el Plan Territorial de Salud</t>
+  </si>
+  <si>
+    <t>SERVICIO ATENCION A LA COMUNIDAD</t>
   </si>
 </sst>
 </file>
@@ -950,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D85141-DC7B-4559-B40E-312FB458334B}">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1067,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1078,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1089,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1100,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1111,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1122,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1133,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1155,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1166,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -1177,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1199,10 +1202,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,10 +1213,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1232,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1254,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -1265,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -1276,7 +1279,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1298,7 +1301,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1309,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1320,7 +1323,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1331,7 +1334,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1364,7 +1367,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1375,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -1397,7 +1400,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1408,7 +1411,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -1419,7 +1422,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -1441,7 +1444,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
@@ -1452,7 +1455,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -1474,7 +1477,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
@@ -1485,7 +1488,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -1496,7 +1499,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -1507,7 +1510,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -1518,7 +1521,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -1540,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
@@ -1551,7 +1554,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
@@ -1562,7 +1565,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -1584,7 +1587,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
@@ -1595,7 +1598,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
@@ -1606,7 +1609,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
@@ -1617,7 +1620,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
         <v>34</v>
@@ -1628,7 +1631,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>34</v>
@@ -1639,7 +1642,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
@@ -1650,7 +1653,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
         <v>34</v>
@@ -1661,7 +1664,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
         <v>34</v>
@@ -1672,7 +1675,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
         <v>40</v>
@@ -1683,7 +1686,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
         <v>40</v>
@@ -1694,7 +1697,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>40</v>
@@ -1705,7 +1708,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
         <v>40</v>
@@ -1716,7 +1719,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -1727,7 +1730,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -1738,7 +1741,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
@@ -1771,7 +1774,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -1782,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
@@ -1793,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
@@ -1804,7 +1807,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
@@ -1815,7 +1818,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
@@ -1826,7 +1829,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -1837,7 +1840,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -1848,7 +1851,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
@@ -1859,7 +1862,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
         <v>35</v>
@@ -1870,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -1881,7 +1884,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -1892,7 +1895,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
@@ -1903,7 +1906,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
         <v>35</v>
@@ -1914,7 +1917,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
         <v>35</v>
@@ -1925,7 +1928,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
@@ -1936,7 +1939,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
         <v>36</v>
@@ -1947,7 +1950,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -1958,7 +1961,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -1969,7 +1972,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -1980,7 +1983,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
@@ -1991,7 +1994,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
         <v>25</v>
@@ -2005,7 +2008,7 @@
         <v>42</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2016,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,7 +2030,7 @@
         <v>44</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2041,7 @@
         <v>45</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,7 +2052,7 @@
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,7 +2063,7 @@
         <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2082,7 +2085,7 @@
         <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,7 +2140,7 @@
         <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,7 +2173,7 @@
         <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,14 +2313,58 @@
         <v>123</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
         <v>127</v>
       </c>
-      <c r="C123" t="s">
-        <v>128</v>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C122" xr:uid="{D6D279C0-E2E8-4515-9E7F-D3EFF806696A}"/>
+  <autoFilter ref="A1:C123" xr:uid="{D6D279C0-E2E8-4515-9E7F-D3EFF806696A}"/>
   <conditionalFormatting sqref="B36:B42">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
@@ -2327,7 +2374,7 @@
   <conditionalFormatting sqref="B94">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123:B1048576 B1:B2 B7:B92">
+  <conditionalFormatting sqref="B123 B1:B2 B7:B92 B128:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/docs/data_objetos.xlsx
+++ b/public/assets/docs/data_objetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESARROLLO\IDS\Frontera\public\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE035D8-8DD7-4D27-B4DA-4A47144FEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2457A6-FC76-435D-909F-7551681FA05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9BD9D899-9351-4A1A-8822-0728B231ACBC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="OBJETOS-X PROGRAMA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJETOS-X PROGRAMA'!$A$1:$C$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJETOS-X PROGRAMA'!$A$1:$C$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="132">
   <si>
     <t>NUMERO</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>LABORATORIO DEPARTAMENTAL DE SALUD PUBLICA</t>
-  </si>
-  <si>
-    <t>Prestar servicios de apoyo para dar cumplimiento a la de inspección y vigilancia del Sistema General de Seguridad Social en Salud en el departamento en el Centro Regulador de Urgencias y Emergencias</t>
   </si>
   <si>
     <t>PROGRAMA LEPRA</t>
@@ -309,9 +306,6 @@
     <t>Prestar servicios de apoyo para la gestión y ejecución de acciones de contención y mitigación de las enfermedades de interés en Salud Pública en el departamento de Norte de Santander, según competencias definidas al laboratorio en salud pública, en marcadas en el plan territorial de salud</t>
   </si>
   <si>
-    <t>Prestar servicios de apoyo en la regulación y orientación de la referencia y contra referencia en los municipios del departamento, en coordinación de las Empresas Sociales del Estado en Norte de Santander</t>
-  </si>
-  <si>
     <t>Prestar servicios de apoyo en la oficina de control de medicamentos / subgrupo de vigilancia y control de salud pública (inspección, vigilancia y control / P. farmacéutica) según competencias departamentales definidas en el Plan Territorial de Salud en el marco del Plan Decenal de Salud Pública</t>
   </si>
   <si>
@@ -514,6 +508,18 @@
   </si>
   <si>
     <t>SERVICIO ATENCION A LA COMUNIDAD</t>
+  </si>
+  <si>
+    <t>Prestar servicios de apoyo a la gestión del Centro Regulador de Urgencias y Emergencias – CRUE del departamento, mediante la operación, recepción, registro y canalización de comunicaciones relacionadas con urgencias, emergencias y eventos de interés en salud pública, así como el soporte a los procesos de despacho, seguimiento y coordinación interinstitucional, de conformidad con las competencias departamentales y lo establecido en la Resolución 1220 de 2010, en apoyo a la ejecución del Plan de Acción Institucional</t>
+  </si>
+  <si>
+    <t>Prestar servicios profesionales como médico de apoyo al Centro Regulador de Urgencias y Emergencias – CRUE del departamento, orientados a la asesoría técnica, regulación médica, priorización y coordinación de la atención de urgencias, emergencias y desastres</t>
+  </si>
+  <si>
+    <t>Prestar servicios profesionales de apoyo a la gestión del Centro Regulador de Urgencias y Emergencias – CRUE del departamento, mediante el acompañamiento técnico, operativo y administrativo a los procesos de coordinación, monitoreo, análisis de información, gestión del riesgo en salud y articulación interinstitucional para la atención de urgencias, emergencias y eventos de interés en salud pública, en concordancia con las competencias departamentales y lo dispuesto en la Resolución 1220 de 2010, en desarrollo del Plan de Acción Institucional y del Plan Territorial de Salud</t>
+  </si>
+  <si>
+    <t>Prestar servicios de apoyo para desarrollar actividades en las EAPB y toda su red contratada para la implementación de las Rutas Integrales de Atención en Salud en la sede del IDS según competencias departamentales definidas en el Plan Territorial de Salud Pública</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D85141-DC7B-4559-B40E-312FB458334B}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -971,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -982,10 +988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1004,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1026,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1037,10 +1043,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1059,10 +1065,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,10 +1076,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1103,10 +1109,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1136,10 +1142,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,10 +1164,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,10 +1175,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1202,10 +1208,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,32 +1230,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,10 +1263,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,10 +1274,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,10 +1285,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,10 +1296,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,10 +1318,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1329,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1345,7 +1351,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1356,10 +1362,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,10 +1373,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,10 +1384,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,10 +1395,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,10 +1406,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,10 +1417,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,10 +1439,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,10 +1450,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,10 +1461,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,10 +1472,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,10 +1483,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,10 +1494,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,10 +1505,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1521,10 +1527,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,10 +1538,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,10 +1549,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,10 +1560,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,10 +1571,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,10 +1582,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1587,10 +1593,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,10 +1604,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,10 +1615,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,10 +1626,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,10 +1637,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,10 +1648,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,10 +1659,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,10 +1670,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,10 +1681,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,10 +1692,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,10 +1703,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,10 +1714,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,10 +1725,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1730,10 +1736,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,10 +1747,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,10 +1758,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,10 +1769,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,10 +1780,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,10 +1791,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,10 +1802,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,10 +1813,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,10 +1824,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,10 +1835,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,10 +1846,10 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,10 +1857,10 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,10 +1868,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,10 +1879,10 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,10 +1890,10 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,10 +1901,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,10 +1912,10 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,10 +1923,10 @@
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1928,10 +1934,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,10 +1945,10 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,10 +1956,10 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,10 +1967,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1972,10 +1978,10 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1983,10 +1989,10 @@
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,10 +2000,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,10 +2011,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2016,10 +2022,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,10 +2033,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,10 +2044,10 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,10 +2055,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,10 +2066,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,10 +2077,10 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2082,10 +2088,10 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,10 +2099,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2104,10 +2110,10 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2115,10 +2121,10 @@
         <v>105</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,10 +2132,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,10 +2143,10 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,10 +2154,10 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2159,10 +2165,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,10 +2176,10 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,10 +2187,10 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,10 +2198,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,10 +2209,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,10 +2220,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2225,10 +2231,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,10 +2242,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2247,10 +2253,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2258,10 +2264,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,7 +2275,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -2280,7 +2286,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2291,7 +2297,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
@@ -2302,7 +2308,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -2313,10 +2319,10 @@
         <v>123</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2324,10 +2330,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,10 +2341,10 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,10 +2352,10 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,14 +2363,36 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>129</v>
       </c>
+      <c r="B129" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C123" xr:uid="{D6D279C0-E2E8-4515-9E7F-D3EFF806696A}"/>
+  <autoFilter ref="A1:C129" xr:uid="{D6D279C0-E2E8-4515-9E7F-D3EFF806696A}"/>
   <conditionalFormatting sqref="B36:B42">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
